--- a/inst/dados_premissas/2023/nomes_dist_powerbi.xlsx
+++ b/inst/dados_premissas/2023/nomes_dist_powerbi.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Geracao Distribuida\PDE\PLAN24-28\dados_premissas\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA1A1EA-DCE1-4D88-934E-AEFC02ABA121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB2B47E-5984-4D0A-BC31-CCDF4967F3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$114</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
   <si>
     <t>sig_agente</t>
   </si>
@@ -253,9 +266,6 @@
     <t>DMED</t>
   </si>
   <si>
-    <t>EBO</t>
-  </si>
-  <si>
     <t>EDP ES</t>
   </si>
   <si>
@@ -283,9 +293,6 @@
     <t>ELFSM</t>
   </si>
   <si>
-    <t>EMG</t>
-  </si>
-  <si>
     <t>EMS</t>
   </si>
   <si>
@@ -296,9 +303,6 @@
   </si>
   <si>
     <t>ENEL RJ</t>
-  </si>
-  <si>
-    <t>ENF</t>
   </si>
   <si>
     <t>EPB</t>
@@ -780,27 +784,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -808,15 +810,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -824,79 +826,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -904,287 +906,287 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1200,15 +1202,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1216,15 +1218,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1232,71 +1234,71 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1304,79 +1306,79 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1384,7 +1386,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1408,7 +1410,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1416,7 +1418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1440,39 +1442,39 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1496,7 +1498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1504,7 +1506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1512,55 +1514,55 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -1592,7 +1594,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -1600,15 +1602,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -1616,7 +1618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -1624,109 +1626,85 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>126</v>
       </c>
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
         <v>131</v>
       </c>
-      <c r="B115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>133</v>
-      </c>
-      <c r="B116" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>134</v>
-      </c>
-      <c r="B117" t="s">
-        <v>134</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/inst/dados_premissas/2023/nomes_dist_powerbi.xlsx
+++ b/inst/dados_premissas/2023/nomes_dist_powerbi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos_r\epe4md-2rq2028\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB2B47E-5984-4D0A-BC31-CCDF4967F3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75662B-8DA9-474E-8910-DD2E54EA798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
   <si>
     <t>sig_agente</t>
   </si>
@@ -432,6 +432,24 @@
   </si>
   <si>
     <t>EMR</t>
+  </si>
+  <si>
+    <t>LIGHT SESA</t>
+  </si>
+  <si>
+    <t>ENF</t>
+  </si>
+  <si>
+    <t>EBO</t>
+  </si>
+  <si>
+    <t>Ceraçá</t>
+  </si>
+  <si>
+    <t>CERAL-DIS</t>
+  </si>
+  <si>
+    <t>PACTO</t>
   </si>
 </sst>
 </file>
@@ -784,9 +802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1567,7 +1587,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1712,7 @@
         <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,6 +1721,62 @@
       </c>
       <c r="B114" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/inst/dados_premissas/2023/nomes_dist_powerbi.xlsx
+++ b/inst/dados_premissas/2023/nomes_dist_powerbi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos_r\epe4md-2rq2028\inst\dados_premissas\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos_r\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75662B-8DA9-474E-8910-DD2E54EA798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87467D-D820-4284-B676-E1A2660F94E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
   <si>
     <t>sig_agente</t>
   </si>
@@ -450,6 +450,18 @@
   </si>
   <si>
     <t>PACTO</t>
+  </si>
+  <si>
+    <t>CPFL-PIRATINING</t>
+  </si>
+  <si>
+    <t>Neoenergia PE</t>
+  </si>
+  <si>
+    <t>Neoenergia Brasília</t>
+  </si>
+  <si>
+    <t>CPFL JAGUARI</t>
   </si>
 </sst>
 </file>
@@ -802,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,6 +1791,54 @@
         <v>118</v>
       </c>
     </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>112</v>
+      </c>
+      <c r="B123" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>140</v>
+      </c>
+      <c r="B127" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/dados_premissas/2023/nomes_dist_powerbi.xlsx
+++ b/inst/dados_premissas/2023/nomes_dist_powerbi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos_r\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87467D-D820-4284-B676-E1A2660F94E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C41FEA-300A-4C31-A39D-39C956074FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="146">
   <si>
     <t>sig_agente</t>
   </si>
@@ -462,13 +462,25 @@
   </si>
   <si>
     <t>CPFL JAGUARI</t>
+  </si>
+  <si>
+    <t>CPFL LESTE PAULI</t>
+  </si>
+  <si>
+    <t>CPFL MOCOCA</t>
+  </si>
+  <si>
+    <t>CASTRO-DIS</t>
+  </si>
+  <si>
+    <t>CERIPa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +495,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDE8E30"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -505,10 +523,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1740,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -1727,7 +1748,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -1735,7 +1756,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -1743,7 +1764,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -1751,7 +1772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>133</v>
       </c>
@@ -1759,7 +1780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -1767,7 +1788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>135</v>
       </c>
@@ -1775,7 +1796,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>136</v>
       </c>
@@ -1783,7 +1804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -1791,7 +1812,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -1799,7 +1820,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -1807,7 +1828,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -1815,7 +1836,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -1823,7 +1844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -1831,12 +1852,61 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>140</v>
       </c>
       <c r="B127" t="s">
         <v>106</v>
+      </c>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
